--- a/src/SpeakSingapore/final_clean_data/aligned_labels/aligned_NUS_ICE.xlsx
+++ b/src/SpeakSingapore/final_clean_data/aligned_labels/aligned_NUS_ICE.xlsx
@@ -1,12 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hungy\Desktop\nus\ism\SpeakSingapore\src\SpeakSingapore\final_clean_data\aligned_labels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A03F78-3C0C-4269-BCEE-2D0ED5471F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="ice_data" sheetId="1" r:id="rId4"/>
+    <sheet name="ice_data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -969,11 +991,6 @@
     <t>[{'role': 'user', 'content': '\nA: Okay.\nB: Okay. Eh, what else do they have? I think that\'s basically it lah. It\'s only in the packaging.\nA: Uhm.\nB: Uhm, I don\'t know whether...'}]</t>
   </si>
   <si>
-    <t xml:space="preserve">
-B: Eh, what else do they sell, other than cakes and bread? 
-A: I think that\'s basically it l</t>
-  </si>
-  <si>
     <t>[{'role': 'user', 'content': '\nA: Of course lah.\nB: That\'s just the trend, you know?\nA: Okay lah.\nB: Uhm, these things tend to be more popular nowadays, you see?\nA: Uhm, ya lor.'}]</t>
   </si>
   <si>
@@ -3012,19 +3029,25 @@
   <si>
     <t>["lah21", "lah21", "leh33"]</t>
   </si>
+  <si>
+    <t xml:space="preserve">
+B: Eh, what else do they sell, other than cakes and bread? 
+A: I think that\'s basically it lah</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -3035,46 +3058,46 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -3264,32 +3287,37 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H285"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B90" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="59.13"/>
-    <col customWidth="1" min="2" max="2" width="125.13"/>
-    <col customWidth="1" min="3" max="3" width="32.75"/>
-    <col customWidth="1" min="4" max="4" width="26.5"/>
-    <col customWidth="1" min="5" max="5" width="10.13"/>
-    <col customWidth="1" min="6" max="6" width="5.5"/>
-    <col customWidth="1" min="7" max="7" width="4.5"/>
-    <col customWidth="1" min="9" max="9" width="37.63"/>
+    <col min="1" max="1" width="59.08984375" customWidth="1"/>
+    <col min="2" max="2" width="125.08984375" customWidth="1"/>
+    <col min="3" max="3" width="32.7265625" customWidth="1"/>
+    <col min="4" max="4" width="26.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" customWidth="1"/>
+    <col min="6" max="6" width="5.453125" customWidth="1"/>
+    <col min="7" max="7" width="4.453125" customWidth="1"/>
+    <col min="9" max="9" width="37.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3313,7 +3341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -3330,21 +3358,21 @@
         <v>1</v>
       </c>
       <c r="F2" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="2" t="b">
-        <f t="shared" ref="H2:H283" si="1">F2=G2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
+        <f t="shared" ref="H2:H256" si="0">F2=G2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -3357,21 +3385,21 @@
         <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H3" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -3384,18 +3412,18 @@
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G4" s="4">
-        <f t="shared" ref="G4:G6" si="2">F4-1</f>
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G6" si="1">F4-1</f>
         <v>1</v>
       </c>
       <c r="H4" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -3410,18 +3438,18 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G5" s="4">
-        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H5" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,18 +3464,18 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G6" s="4">
-        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H6" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -3462,21 +3490,21 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G7" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H7" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -3487,18 +3515,18 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G8" s="4">
-        <f t="shared" ref="G8:G15" si="3">F8-1</f>
+        <v>3</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" ref="G8:G15" si="2">F8-1</f>
         <v>2</v>
       </c>
       <c r="H8" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -3513,18 +3541,18 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G9" s="4">
-        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H9" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -3539,22 +3567,22 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G10" s="4">
-        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H10" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -3565,18 +3593,18 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G11" s="4">
-        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H11" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -3591,18 +3619,18 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G12" s="4">
-        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H12" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -3617,22 +3645,22 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G13" s="4">
-        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H13" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -3643,22 +3671,22 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G14" s="4">
-        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H14" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -3669,18 +3697,18 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G15" s="4">
-        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H15" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -3695,17 +3723,17 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -3720,22 +3748,22 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G17" s="4">
-        <f t="shared" ref="G17:G18" si="4">F17-1</f>
+        <v>3</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" ref="G17:G18" si="3">F17-1</f>
         <v>2</v>
       </c>
       <c r="H17" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -3746,22 +3774,22 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G18" s="4">
-        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H18" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -3772,21 +3800,21 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -3797,22 +3825,22 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G20" s="4">
-        <f t="shared" ref="G20:G25" si="5">F20-1</f>
+        <v>2</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" ref="G20:G25" si="4">F20-1</f>
         <v>1</v>
       </c>
       <c r="H20" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -3823,22 +3851,22 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G21" s="4">
-        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H21" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -3849,22 +3877,22 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G22" s="4">
-        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H22" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -3875,22 +3903,22 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G23" s="4">
-        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H23" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -3901,22 +3929,22 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G24" s="4">
-        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H24" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -3927,22 +3955,22 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G25" s="4">
-        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H25" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -3953,21 +3981,21 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G26" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -3978,21 +4006,21 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G27" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H27" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -4000,22 +4028,22 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G28" s="4">
-        <f t="shared" ref="G28:G283" si="6">F28-1</f>
+        <v>2</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" ref="G28:G282" si="5">F28-1</f>
         <v>1</v>
       </c>
       <c r="H28" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -4023,22 +4051,22 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G29" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H29" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="125" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -4046,22 +4074,22 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G30" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H30" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -4069,22 +4097,22 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G31" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H31" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -4092,22 +4120,22 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G32" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H32" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -4115,22 +4143,22 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G33" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H33" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -4138,22 +4166,22 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G34" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H34" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -4161,18 +4189,18 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G35" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H35" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>95</v>
       </c>
@@ -4184,22 +4212,22 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G36" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H36" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -4207,22 +4235,22 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G37" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H37" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="175" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -4230,22 +4258,22 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G38" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H38" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -4253,22 +4281,22 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G39" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H39" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -4276,22 +4304,22 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G40" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H40" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -4299,22 +4327,22 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G41" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H41" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -4322,22 +4350,22 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G42" s="4">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H42" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -4345,22 +4373,22 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G43" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H43" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -4368,22 +4396,22 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G44" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G44" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H44" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -4391,22 +4419,22 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G45" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G45" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H45" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -4414,22 +4442,22 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G46" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G46" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H46" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -4437,22 +4465,22 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G47" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G47" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H47" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -4460,22 +4488,22 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G48" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G48" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H48" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -4483,22 +4511,22 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G49" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G49" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H49" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -4506,22 +4534,22 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G50" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G50" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H50" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -4529,22 +4557,22 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="G51" s="4">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G51" s="2">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H51" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -4552,22 +4580,22 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G52" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G52" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H52" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -4575,22 +4603,22 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G53" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G53" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H53" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -4598,22 +4626,22 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G54" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G54" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H54" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -4621,22 +4649,22 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G55" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G55" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H55" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -4644,22 +4672,22 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G56" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G56" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H56" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -4667,22 +4695,22 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G57" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G57" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H57" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="1" t="s">
         <v>146</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -4690,22 +4718,22 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G58" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G58" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H58" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="1" t="s">
         <v>148</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -4713,22 +4741,22 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G59" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G59" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H59" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -4736,22 +4764,22 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G60" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G60" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H60" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -4759,22 +4787,22 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G61" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G61" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H61" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -4782,22 +4810,22 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G62" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G62" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H62" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -4805,22 +4833,22 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G63" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G63" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H63" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="1" t="s">
         <v>160</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -4828,22 +4856,22 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="G64" s="4">
-        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="G64" s="2">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="H64" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="1" t="s">
         <v>162</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -4851,22 +4879,22 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G65" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G65" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H65" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -4874,22 +4902,22 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G66" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G66" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H66" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="1" t="s">
         <v>167</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -4897,22 +4925,22 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G67" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G67" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H67" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="1" t="s">
         <v>169</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -4920,22 +4948,22 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G68" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G68" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H68" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="1" t="s">
         <v>172</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -4943,22 +4971,22 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G69" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G69" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H69" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="1" t="s">
         <v>174</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -4966,22 +4994,22 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G70" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G70" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H70" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="1" t="s">
         <v>176</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -4989,22 +5017,22 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G71" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G71" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H71" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -5012,22 +5040,22 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G72" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G72" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H72" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -5035,22 +5063,22 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G73" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G73" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H73" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -5058,22 +5086,22 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G74" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G74" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H74" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -5081,22 +5109,22 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G75" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G75" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H75" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="1" t="s">
         <v>186</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -5104,22 +5132,22 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="G76" s="4">
-        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="G76" s="2">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="H76" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="1" t="s">
         <v>188</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -5127,22 +5155,22 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G77" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G77" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H77" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="1" t="s">
         <v>190</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -5150,22 +5178,22 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G78" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G78" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H78" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="1" t="s">
         <v>192</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -5173,22 +5201,22 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G79" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G79" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H79" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="1" t="s">
         <v>194</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -5196,22 +5224,22 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G80" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G80" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H80" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -5219,22 +5247,22 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G81" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G81" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H81" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="1" t="s">
         <v>198</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -5242,18 +5270,18 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G82" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G82" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H82" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>199</v>
       </c>
@@ -5265,22 +5293,22 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="G83" s="4">
-        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="G83" s="2">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="H83" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -5288,22 +5316,22 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G84" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G84" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H84" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="1" t="s">
         <v>205</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -5311,22 +5339,22 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G85" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G85" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H85" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="1" t="s">
         <v>207</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -5334,22 +5362,22 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G86" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G86" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H86" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -5357,22 +5385,22 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G87" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G87" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H87" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -5380,22 +5408,22 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G88" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G88" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H88" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="1" t="s">
         <v>213</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -5403,22 +5431,22 @@
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G89" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G89" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H89" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="1" t="s">
         <v>215</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -5426,22 +5454,22 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G90" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G90" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H90" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="1" t="s">
         <v>217</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -5449,4442 +5477,4442 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G91" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G91" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H91" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>219</v>
+      <c r="B92" s="1" t="s">
+        <v>643</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G92" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G92" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H92" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G93" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G93" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H93" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>223</v>
-      </c>
       <c r="C94" s="2" t="s">
-        <v>224</v>
+        <v>13</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G94" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G94" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H94" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>226</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G95" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G95" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H95" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G96" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G96" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H96" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G97" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G97" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H97" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G98" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G98" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H98" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G99" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G99" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H99" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G100" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G100" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H100" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>151</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G101" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G101" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H101" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="C102" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="G102" s="4">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G102" s="2">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H102" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G103" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G103" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H103" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="162.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G104" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G104" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H104" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G105" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G105" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H105" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="162.5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G106" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G106" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H106" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G107" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G107" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H107" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G108" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G108" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H108" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="C109" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G109" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G109" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H109" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G110" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G110" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H110" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="C111" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="G111" s="4">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G111" s="2">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H111" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="C112" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="G112" s="4">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G112" s="2">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H112" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G113" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G113" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H113" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>268</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G114" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G114" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H114" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G115" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G115" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H115" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>151</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G116" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G116" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H116" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G117" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G117" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H117" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G118" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G118" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H118" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>278</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G119" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G119" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H119" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G120" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G120" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H120" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G121" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G121" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H121" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="C122" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="G122" s="4">
-        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="G122" s="2">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="H122" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G123" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G123" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H123" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>289</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G124" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G124" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H124" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>291</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="G125" s="4">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G125" s="2">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H125" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G126" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G126" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H126" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="137.5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>165</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G127" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G127" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H127" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G128" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G128" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H128" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G129" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G129" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H129" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>301</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G130" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G130" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H130" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>303</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G131" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G131" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H131" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>151</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="G132" s="4">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G132" s="2">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H132" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B133" s="3" t="s">
-        <v>307</v>
-      </c>
       <c r="C133" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G133" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G133" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H133" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>309</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G134" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G134" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H134" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B135" s="3" t="s">
-        <v>310</v>
+      <c r="B135" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G135" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G135" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H135" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>312</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G136" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G136" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H136" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="C137" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>315</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G137" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G137" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H137" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>317</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G138" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G138" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H138" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="C139" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G139" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G139" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H139" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G140" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G140" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H140" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>324</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G141" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G141" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H141" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B142" s="3" t="s">
-        <v>326</v>
-      </c>
       <c r="C142" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="G142" s="4">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G142" s="2">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H142" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="C143" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G143" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G143" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H143" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G144" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G144" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H144" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G145" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G145" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H145" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G146" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G146" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H146" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>337</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G147" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G147" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H147" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G148" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G148" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H148" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G149" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G149" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H149" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G150" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G150" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H150" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>345</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G151" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G151" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H151" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>347</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G152" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G152" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H152" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G153" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G153" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H153" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>351</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G154" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G154" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H154" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G155" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G155" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H155" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G156" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G156" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H156" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="C157" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>358</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G157" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G157" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H157" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G158" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G158" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H158" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>362</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G159" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G159" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H159" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="C160" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G160" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G160" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H160" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="C161" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="G161" s="4">
-        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="G161" s="2">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="H161" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="C162" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G162" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G162" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H162" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="C163" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G163" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G163" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H163" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G164" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G164" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H164" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>377</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G165" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G165" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H165" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G166" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G166" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H166" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>381</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G167" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G167" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H167" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>383</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G168" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G168" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H168" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>385</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G169" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G169" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H169" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="C170" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>388</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G170" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G170" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H170" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="C171" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>391</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="G171" s="4">
-        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="G171" s="2">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="H171" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G172" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G172" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H172" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>395</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E173" s="2"/>
       <c r="F173" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G173" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G173" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H173" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>397</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G174" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G174" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H174" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="C175" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>400</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="G175" s="4">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G175" s="2">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H175" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="C176" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="E176" s="2"/>
       <c r="F176" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G176" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G176" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H176" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>405</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E177" s="2"/>
       <c r="F177" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G177" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G177" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H177" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>407</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E178" s="2"/>
       <c r="F178" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G178" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G178" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H178" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>409</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E179" s="2"/>
       <c r="F179" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G179" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G179" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H179" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>411</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>151</v>
       </c>
       <c r="E180" s="2"/>
       <c r="F180" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G180" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G180" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H180" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="C181" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="E181" s="2"/>
       <c r="F181" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G181" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G181" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H181" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="C182" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>417</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G182" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G182" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H182" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="C183" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="E183" s="2"/>
       <c r="F183" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G183" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G183" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H183" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>422</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G184" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G184" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H184" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>424</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G185" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G185" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H185" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>426</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E186" s="2"/>
       <c r="F186" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G186" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G186" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H186" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>428</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E187" s="2"/>
       <c r="F187" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G187" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G187" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H187" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>430</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E188" s="2"/>
       <c r="F188" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G188" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G188" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H188" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>432</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E189" s="2"/>
       <c r="F189" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G189" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G189" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H189" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>434</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G190" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G190" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H190" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>201</v>
       </c>
       <c r="E191" s="2"/>
       <c r="F191" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="G191" s="4">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G191" s="2">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H191" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>438</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E192" s="2"/>
       <c r="F192" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G192" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G192" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H192" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>440</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E193" s="2"/>
       <c r="F193" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G193" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G193" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H193" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>442</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E194" s="2"/>
       <c r="F194" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G194" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G194" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H194" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>444</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E195" s="2"/>
       <c r="F195" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G195" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G195" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H195" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>446</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E196" s="2"/>
       <c r="F196" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G196" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G196" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H196" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E197" s="2"/>
       <c r="F197" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G197" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G197" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H197" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E198" s="2"/>
       <c r="F198" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G198" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G198" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H198" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="C199" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="E199" s="2"/>
       <c r="F199" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G199" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G199" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H199" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>455</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>170</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G200" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G200" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H200" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>457</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E201" s="2"/>
       <c r="F201" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G201" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G201" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H201" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="C202" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>460</v>
       </c>
       <c r="E202" s="2"/>
       <c r="F202" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="G202" s="4">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G202" s="2">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H202" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>462</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E203" s="2"/>
       <c r="F203" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G203" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G203" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H203" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E204" s="2"/>
       <c r="F204" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G204" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G204" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H204" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E205" s="2"/>
       <c r="F205" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G205" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G205" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H205" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>468</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>151</v>
       </c>
       <c r="E206" s="2"/>
       <c r="F206" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G206" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G206" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H206" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>469</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>470</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E207" s="2"/>
       <c r="F207" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G207" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G207" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H207" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>472</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E208" s="2"/>
       <c r="F208" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G208" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G208" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H208" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>474</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E209" s="2"/>
       <c r="F209" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G209" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G209" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H209" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>476</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E210" s="2"/>
       <c r="F210" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G210" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G210" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H210" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="B211" s="3" t="s">
-        <v>478</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E211" s="2"/>
       <c r="F211" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G211" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G211" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H211" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>480</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E212" s="2"/>
       <c r="F212" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G212" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G212" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H212" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>482</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E213" s="2"/>
       <c r="F213" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G213" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G213" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H213" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>484</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E214" s="2"/>
       <c r="F214" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G214" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G214" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H214" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>486</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>151</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G215" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G215" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H215" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B216" s="3" t="s">
+      <c r="C216" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>489</v>
       </c>
       <c r="E216" s="2"/>
       <c r="F216" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G216" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G216" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H216" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B217" s="3" t="s">
+      <c r="C217" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>492</v>
       </c>
       <c r="E217" s="2"/>
       <c r="F217" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="G217" s="4">
-        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="G217" s="2">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="H217" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="C218" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>495</v>
       </c>
       <c r="E218" s="2"/>
       <c r="F218" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="G218" s="4">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G218" s="2">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H218" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B219" s="3" t="s">
-        <v>497</v>
-      </c>
       <c r="C219" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E219" s="2"/>
       <c r="F219" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G219" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G219" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H219" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="B220" s="3" t="s">
-        <v>499</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E220" s="2"/>
       <c r="F220" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="G220" s="4">
-        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="G220" s="2">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="H220" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B221" s="3" t="s">
-        <v>501</v>
-      </c>
       <c r="C221" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E221" s="2"/>
       <c r="F221" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G221" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G221" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H221" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="125" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="B222" s="3" t="s">
+      <c r="C222" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>504</v>
       </c>
       <c r="E222" s="2"/>
       <c r="F222" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G222" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G222" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H222" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B223" s="3" t="s">
-        <v>506</v>
-      </c>
       <c r="C223" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E223" s="2"/>
       <c r="F223" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G223" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G223" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H223" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B224" s="3" t="s">
+      <c r="C224" s="2" t="s">
         <v>508</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>509</v>
       </c>
       <c r="E224" s="2"/>
       <c r="F224" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G224" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G224" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H224" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="B225" s="3" t="s">
-        <v>511</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E225" s="2"/>
       <c r="F225" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G225" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G225" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H225" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="B226" s="3" t="s">
-        <v>513</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E226" s="2"/>
       <c r="F226" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G226" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G226" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H226" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B227" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>515</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E227" s="2"/>
       <c r="F227" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G227" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G227" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H227" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B228" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>517</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E228" s="2"/>
       <c r="F228" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G228" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G228" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H228" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="B229" s="3" t="s">
-        <v>519</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E229" s="2"/>
       <c r="F229" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G229" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G229" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H229" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B230" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="B230" s="3" t="s">
-        <v>521</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E230" s="2"/>
       <c r="F230" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G230" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G230" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H230" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B231" s="3" t="s">
-        <v>523</v>
-      </c>
       <c r="C231" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E231" s="2"/>
       <c r="F231" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G231" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G231" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H231" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="C232" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>526</v>
       </c>
       <c r="E232" s="2"/>
       <c r="F232" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="G232" s="4">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G232" s="2">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H232" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B233" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="B233" s="3" t="s">
-        <v>528</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E233" s="2"/>
       <c r="F233" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G233" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G233" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H233" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>529</v>
-      </c>
-      <c r="B234" s="3" t="s">
-        <v>530</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E234" s="2"/>
       <c r="F234" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G234" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G234" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H234" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>531</v>
-      </c>
-      <c r="B235" s="3" t="s">
-        <v>532</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E235" s="2"/>
       <c r="F235" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G235" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G235" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H235" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="B236" s="3" t="s">
-        <v>534</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>201</v>
       </c>
       <c r="E236" s="2"/>
       <c r="F236" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G236" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G236" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H236" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B237" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="B237" s="3" t="s">
-        <v>536</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E237" s="2"/>
       <c r="F237" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G237" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G237" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H237" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B238" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B238" s="3" t="s">
-        <v>538</v>
-      </c>
       <c r="C238" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E238" s="2"/>
       <c r="F238" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G238" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G238" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H238" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B239" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="B239" s="3" t="s">
-        <v>540</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>151</v>
       </c>
       <c r="E239" s="2"/>
       <c r="F239" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G239" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G239" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H239" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B240" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B240" s="3" t="s">
+      <c r="C240" s="2" t="s">
         <v>542</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>543</v>
       </c>
       <c r="E240" s="2"/>
       <c r="F240" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G240" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G240" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H240" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B241" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="B241" s="3" t="s">
-        <v>545</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E241" s="2"/>
       <c r="F241" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G241" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G241" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H241" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B242" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B242" s="3" t="s">
+      <c r="C242" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>548</v>
       </c>
       <c r="E242" s="2"/>
       <c r="F242" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G242" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G242" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H242" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B243" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="B243" s="3" t="s">
-        <v>550</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E243" s="2"/>
       <c r="F243" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G243" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G243" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H243" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B244" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="B244" s="3" t="s">
-        <v>552</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E244" s="2"/>
       <c r="F244" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G244" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G244" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H244" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B245" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="B245" s="3" t="s">
-        <v>554</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E245" s="2"/>
       <c r="F245" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G245" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G245" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H245" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B246" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="B246" s="3" t="s">
-        <v>556</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E246" s="2"/>
       <c r="F246" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G246" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G246" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H246" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B247" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="B247" s="3" t="s">
-        <v>558</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G247" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G247" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H247" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B248" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="B248" s="3" t="s">
-        <v>560</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E248" s="2"/>
       <c r="F248" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G248" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G248" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H248" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B249" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="B249" s="3" t="s">
-        <v>562</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E249" s="2"/>
       <c r="F249" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G249" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G249" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H249" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="B250" s="3" t="s">
-        <v>564</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E250" s="2"/>
       <c r="F250" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G250" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G250" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H250" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B251" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>566</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E251" s="2"/>
       <c r="F251" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G251" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G251" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H251" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B252" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="B252" s="3" t="s">
+      <c r="C252" s="2" t="s">
         <v>568</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>569</v>
       </c>
       <c r="E252" s="2"/>
       <c r="F252" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="G252" s="4">
-        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G252" s="2">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H252" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B253" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="B253" s="3" t="s">
-        <v>571</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E253" s="2"/>
       <c r="F253" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G253" s="4">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G253" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H253" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B254" s="1" t="s">
         <v>572</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>573</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E254" s="2"/>
       <c r="F254" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G254" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G254" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H254" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B255" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>575</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E255" s="2"/>
       <c r="F255" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G255" s="4">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G255" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H255" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B256" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="B256" s="3" t="s">
+      <c r="C256" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>578</v>
       </c>
       <c r="E256" s="2"/>
       <c r="F256" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G256" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G256" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H256" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B257" s="1" t="s">
         <v>579</v>
-      </c>
-      <c r="B257" s="3" t="s">
-        <v>580</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E257" s="2"/>
       <c r="F257" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G257" s="4">
-        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G257" s="2">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H257" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258">
+        <f t="shared" ref="H257:H283" si="6">F257=G257</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B258" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="B258" s="3" t="s">
-        <v>582</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E258" s="2"/>
       <c r="F258" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G258" s="4">
+        <v>2</v>
+      </c>
+      <c r="G258" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H258" s="2" t="b">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H258" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B259" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="B259" s="3" t="s">
+      <c r="C259" s="2" t="s">
         <v>584</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>585</v>
       </c>
       <c r="E259" s="2"/>
       <c r="F259" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G259" s="4">
+        <v>3</v>
+      </c>
+      <c r="G259" s="2">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H259" s="2" t="b">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="H259" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B260" s="1" t="s">
         <v>586</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>587</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E260" s="2"/>
       <c r="F260" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G260" s="4">
+        <v>3</v>
+      </c>
+      <c r="G260" s="2">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H260" s="2" t="b">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="H260" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B261" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B261" s="3" t="s">
+      <c r="C261" s="2" t="s">
         <v>589</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>590</v>
       </c>
       <c r="E261" s="2"/>
       <c r="F261" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="G261" s="4">
+        <v>5</v>
+      </c>
+      <c r="G261" s="2">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="H261" s="2" t="b">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="H261" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B262" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>592</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E262" s="2"/>
       <c r="F262" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G262" s="4">
+        <v>2</v>
+      </c>
+      <c r="G262" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H262" s="2" t="b">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H262" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B263" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="B263" s="3" t="s">
-        <v>594</v>
-      </c>
       <c r="C263" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E263" s="2"/>
       <c r="F263" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G263" s="4">
+        <v>3</v>
+      </c>
+      <c r="G263" s="2">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H263" s="2" t="b">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="H263" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B264" s="1" t="s">
         <v>595</v>
-      </c>
-      <c r="B264" s="3" t="s">
-        <v>596</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E264" s="2"/>
       <c r="F264" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G264" s="4">
+        <v>3</v>
+      </c>
+      <c r="G264" s="2">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H264" s="2" t="b">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="H264" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B265" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="B265" s="3" t="s">
-        <v>598</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E265" s="2"/>
       <c r="F265" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G265" s="4">
+        <v>2</v>
+      </c>
+      <c r="G265" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H265" s="2" t="b">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H265" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B266" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="B266" s="3" t="s">
-        <v>600</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E266" s="2"/>
       <c r="F266" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G266" s="4">
+        <v>3</v>
+      </c>
+      <c r="G266" s="2">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H266" s="2" t="b">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="H266" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B267" s="1" t="s">
         <v>601</v>
-      </c>
-      <c r="B267" s="3" t="s">
-        <v>602</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E267" s="2"/>
       <c r="F267" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G267" s="4">
+        <v>3</v>
+      </c>
+      <c r="G267" s="2">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H267" s="2" t="b">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="H267" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B268" s="1" t="s">
         <v>603</v>
-      </c>
-      <c r="B268" s="3" t="s">
-        <v>604</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E268" s="2"/>
       <c r="F268" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G268" s="4">
+        <v>3</v>
+      </c>
+      <c r="G268" s="2">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H268" s="2" t="b">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="H268" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B269" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="B269" s="3" t="s">
+      <c r="C269" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>607</v>
       </c>
       <c r="E269" s="2"/>
       <c r="F269" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G269" s="4">
+        <v>2</v>
+      </c>
+      <c r="G269" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H269" s="2" t="b">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H269" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B270" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="B270" s="3" t="s">
+      <c r="C270" s="2" t="s">
         <v>609</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>610</v>
       </c>
       <c r="E270" s="2"/>
       <c r="F270" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="G270" s="4">
+        <v>6</v>
+      </c>
+      <c r="G270" s="2">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="H270" s="2" t="b">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="H270" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B271" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="B271" s="3" t="s">
+      <c r="C271" s="2" t="s">
         <v>612</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>613</v>
       </c>
       <c r="E271" s="2"/>
       <c r="F271" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="G271" s="4">
+        <v>6</v>
+      </c>
+      <c r="G271" s="2">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="H271" s="2" t="b">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="H271" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B272" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B272" s="3" t="s">
+      <c r="C272" s="2" t="s">
         <v>615</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>616</v>
       </c>
       <c r="E272" s="2"/>
       <c r="F272" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="G272" s="4">
+        <v>7</v>
+      </c>
+      <c r="G272" s="2">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="H272" s="2" t="b">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="H272" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B273" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="B273" s="3" t="s">
+      <c r="C273" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="E273" s="2"/>
       <c r="F273" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="G273" s="4">
+        <v>6</v>
+      </c>
+      <c r="G273" s="2">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="H273" s="2" t="b">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="H273" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B274" s="1" t="s">
         <v>620</v>
-      </c>
-      <c r="B274" s="3" t="s">
-        <v>621</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E274" s="2"/>
       <c r="F274" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G274" s="4">
+        <v>3</v>
+      </c>
+      <c r="G274" s="2">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H274" s="2" t="b">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="H274" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B275" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="B275" s="3" t="s">
-        <v>623</v>
-      </c>
       <c r="C275" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E275" s="2"/>
       <c r="F275" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G275" s="4">
+        <v>2</v>
+      </c>
+      <c r="G275" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H275" s="2" t="b">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H275" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B276" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="B276" s="3" t="s">
-        <v>625</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E276" s="2"/>
       <c r="F276" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G276" s="4">
+        <v>2</v>
+      </c>
+      <c r="G276" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H276" s="2" t="b">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H276" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B277" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="B277" s="3" t="s">
+      <c r="C277" s="2" t="s">
         <v>627</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>628</v>
       </c>
       <c r="E277" s="2"/>
       <c r="F277" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G277" s="4">
+        <v>1</v>
+      </c>
+      <c r="G277" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H277" s="2" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H277" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278">
+    </row>
+    <row r="278" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B278" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="B278" s="3" t="s">
+      <c r="C278" s="2" t="s">
         <v>630</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>631</v>
       </c>
       <c r="E278" s="2"/>
       <c r="F278" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G278" s="4">
+        <v>1</v>
+      </c>
+      <c r="G278" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H278" s="2" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H278" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279">
+    </row>
+    <row r="279" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B279" s="1" t="s">
         <v>632</v>
-      </c>
-      <c r="B279" s="3" t="s">
-        <v>633</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E279" s="2"/>
       <c r="F279" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G279" s="4">
+        <v>2</v>
+      </c>
+      <c r="G279" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H279" s="2" t="b">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H279" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B280" s="1" t="s">
         <v>634</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>635</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E280" s="2"/>
       <c r="F280" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G280" s="4">
+        <v>3</v>
+      </c>
+      <c r="G280" s="2">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H280" s="2" t="b">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="H280" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B281" s="1" t="s">
         <v>636</v>
-      </c>
-      <c r="B281" s="3" t="s">
-        <v>637</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E281" s="2"/>
       <c r="F281" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G281" s="4">
+        <v>4</v>
+      </c>
+      <c r="G281" s="2">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H281" s="2" t="b">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="H281" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B282" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="B282" s="3" t="s">
+      <c r="C282" s="2" t="s">
         <v>639</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>640</v>
       </c>
       <c r="E282" s="2"/>
       <c r="F282" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G282" s="4">
+        <v>3</v>
+      </c>
+      <c r="G282" s="2">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H282" s="2" t="b">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="H282" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B283" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="B283" s="3" t="s">
+      <c r="C283" s="2" t="s">
         <v>642</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>643</v>
       </c>
       <c r="E283" s="2"/>
       <c r="F283" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G283" s="4">
+        <v>4</v>
+      </c>
+      <c r="G283" s="2">
+        <f t="shared" ref="G283" si="7">F283-1</f>
+        <v>3</v>
+      </c>
+      <c r="H283" s="2" t="b">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="H283" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="5"/>
-      <c r="B284" s="5"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="5"/>
-      <c r="B285" s="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A284" s="1"/>
+      <c r="B284" s="1"/>
+    </row>
+    <row r="285" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A285" s="1"/>
+      <c r="B285" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>